--- a/final/销量预测.xlsx
+++ b/final/销量预测.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
-  <si>
-    <t>Sales Estimate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Year</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,11 +73,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Revenue Estimation </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sales volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值税率6%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue Estimate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit Estimation </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Value </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value-added tax</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,11 +508,14 @@
     <col min="5" max="5" width="30.21875" customWidth="1"/>
     <col min="6" max="6" width="28.88671875" customWidth="1"/>
     <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -508,31 +523,41 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -552,11 +577,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>499*C3+9999*D3+49999*E3+99999*F3</f>
-        <v>406929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>(499*C3+9999*D3+49999*E3+99999*F3)/1.06</f>
+        <v>383895.28301886789</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f>(499*C3+9999*D3+49999*E3+99999*F3)*(1-1/1.06)</f>
+        <v>23033.716981132115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -576,11 +611,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <f>499*C4+9999*D4+49999*E4+99999*F4</f>
-        <v>1715835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>(499*C4+9999*D4+49999*E4+99999*F4)/1.06</f>
+        <v>1618712.2641509434</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J5" si="0">(499*C4+9999*D4+49999*E4+99999*F4)*(1-1/1.06)</f>
+        <v>97122.735849056771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -600,33 +642,40 @@
         <v>19</v>
       </c>
       <c r="G5" s="2">
-        <f>499*C5+9999*D5+49999*E5+99999*F5</f>
-        <v>7144836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
+        <f>(499*C5+9999*D5+49999*E5+99999*F5)/1.06</f>
+        <v>6740411.3207547171</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>404424.67924528371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -641,7 +690,7 @@
         <v>1485420</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -652,11 +701,11 @@
         <v>2</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="0">(21593*C12+25548*B12)*12</f>
+        <f t="shared" ref="D12:D13" si="1">(21593*C12+25548*B12)*12</f>
         <v>1744536</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -667,30 +716,30 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3299232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -717,11 +766,11 @@
         <v>156384</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:C19" si="1">D12</f>
+        <f t="shared" ref="C18:C19" si="2">D12</f>
         <v>1744536</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="2">B18+C18</f>
+        <f t="shared" ref="D18:D19" si="3">B18+C18</f>
         <v>1900920</v>
       </c>
     </row>
@@ -733,17 +782,17 @@
         <v>156384</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3299232</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3455616</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -751,16 +800,16 @@
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -769,7 +818,7 @@
       </c>
       <c r="B23" s="2">
         <f>G3</f>
-        <v>406929</v>
+        <v>383895.28301886789</v>
       </c>
       <c r="C23" s="2">
         <f>D17</f>
@@ -777,7 +826,7 @@
       </c>
       <c r="D23" s="2">
         <f>B23-C23</f>
-        <v>-1234875</v>
+        <v>-1257908.716981132</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -785,16 +834,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ref="B24:B25" si="3">G4</f>
-        <v>1715835</v>
+        <f t="shared" ref="B24:B25" si="4">G4</f>
+        <v>1618712.2641509434</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:C25" si="4">D18</f>
+        <f t="shared" ref="C24:C25" si="5">D18</f>
         <v>1900920</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="5">B24-C24</f>
-        <v>-185085</v>
+        <f t="shared" ref="D24:D25" si="6">B24-C24</f>
+        <v>-282207.73584905663</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -802,20 +851,21 @@
         <v>3</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="3"/>
-        <v>7144836</v>
+        <f t="shared" si="4"/>
+        <v>6740411.3207547171</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3455616</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="5"/>
-        <v>3689220</v>
+        <f t="shared" si="6"/>
+        <v>3284795.3207547171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:D9"/>

--- a/final/销量预测.xlsx
+++ b/final/销量预测.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Year</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>Value-added tax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable Costs </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -655,7 +659,7 @@
     </row>
     <row r="9" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -747,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>156384</v>
+        <v>166384</v>
       </c>
       <c r="C17" s="2">
         <f>D11</f>
@@ -755,7 +759,7 @@
       </c>
       <c r="D17" s="2">
         <f>B17+C17</f>
-        <v>1641804</v>
+        <v>1651804</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -763,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>156384</v>
+        <v>166384</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ref="C18:C19" si="2">D12</f>
@@ -771,7 +775,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:D19" si="3">B18+C18</f>
-        <v>1900920</v>
+        <v>1910920</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -779,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>156384</v>
+        <v>166384</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="2"/>
@@ -787,7 +791,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="3"/>
-        <v>3455616</v>
+        <v>3465616</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
@@ -822,11 +826,11 @@
       </c>
       <c r="C23" s="2">
         <f>D17</f>
-        <v>1641804</v>
+        <v>1651804</v>
       </c>
       <c r="D23" s="2">
         <f>B23-C23</f>
-        <v>-1257908.716981132</v>
+        <v>-1267908.716981132</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -839,11 +843,11 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:C25" si="5">D18</f>
-        <v>1900920</v>
+        <v>1910920</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D25" si="6">B24-C24</f>
-        <v>-282207.73584905663</v>
+        <v>-292207.73584905663</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -856,11 +860,11 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
-        <v>3455616</v>
+        <v>3465616</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="6"/>
-        <v>3284795.3207547171</v>
+        <v>3274795.3207547171</v>
       </c>
     </row>
   </sheetData>

--- a/final/销量预测.xlsx
+++ b/final/销量预测.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Year</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Fixed Operating Costs </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable Operating Costs </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sales volume</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,6 +90,10 @@
   </si>
   <si>
     <t xml:space="preserve">Variable Costs </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Costs </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +496,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -519,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -528,7 +524,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="I1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8"/>
     </row>
@@ -552,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -585,7 +581,7 @@
         <v>383895.28301886789</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -659,7 +655,7 @@
     </row>
     <row r="9" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -737,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -796,7 +792,7 @@
     </row>
     <row r="21" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>

--- a/final/销量预测.xlsx
+++ b/final/销量预测.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,18 +639,18 @@
         <v>53</v>
       </c>
       <c r="F5" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2">
         <f>(499*C5+9999*D5+49999*E5+99999*F5)/1.06</f>
-        <v>6740411.3207547171</v>
+        <v>7400782.0754716974</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>404424.67924528371</v>
+        <v>444046.92452830268</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
@@ -852,7 +852,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="4"/>
-        <v>6740411.3207547171</v>
+        <v>7400782.0754716974</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="6"/>
-        <v>3274795.3207547171</v>
+        <v>3935166.0754716974</v>
       </c>
     </row>
   </sheetData>
